--- a/Sprint 1 Backlog.xlsx
+++ b/Sprint 1 Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,13 +197,13 @@
     <t>Tony Huynh</t>
   </si>
   <si>
-    <t>NAthaniel Leake/Andrew Lam</t>
-  </si>
-  <si>
     <t>Andrew Lam/Tony Huyhn</t>
   </si>
   <si>
     <t>Tony Huynh/Andrew Lam</t>
+  </si>
+  <si>
+    <t>Nathaniel Leake/Andrew Lam</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">

--- a/Sprint 1 Backlog.xlsx
+++ b/Sprint 1 Backlog.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlam/Documents/csce315/CSCE-315-Project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\csce315\CSCE-315-Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="16103" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>Project 2 Group 4</t>
   </si>
@@ -185,9 +185,6 @@
     <t xml:space="preserve">total hours </t>
   </si>
   <si>
-    <t>Team member</t>
-  </si>
-  <si>
     <t>Nathaniel Leake</t>
   </si>
   <si>
@@ -204,12 +201,18 @@
   </si>
   <si>
     <t>Nathaniel Leake/Andrew Lam</t>
+  </si>
+  <si>
+    <t>Team member Initial</t>
+  </si>
+  <si>
+    <t>Team member Actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -252,6 +255,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -520,26 +526,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="3" width="50.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.1875" customWidth="1"/>
+    <col min="4" max="4" width="20.6875" customWidth="1"/>
+    <col min="5" max="5" width="26.6875" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -553,10 +560,13 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -564,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B5">
         <v>1.1000000000000001</v>
       </c>
@@ -575,10 +585,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B6">
         <v>1.2</v>
       </c>
@@ -589,10 +602,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B7">
         <v>1.3</v>
       </c>
@@ -603,10 +619,13 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B8">
         <v>1.4</v>
       </c>
@@ -617,10 +636,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B9">
         <v>1.5</v>
       </c>
@@ -631,10 +653,13 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>1.6</v>
       </c>
@@ -645,10 +670,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B11">
         <v>1.7</v>
       </c>
@@ -659,10 +687,13 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B12">
         <v>1.8</v>
       </c>
@@ -673,10 +704,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B13">
         <v>1.9</v>
       </c>
@@ -687,10 +721,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B14" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -701,10 +738,13 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B15">
         <v>1.1100000000000001</v>
       </c>
@@ -715,10 +755,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B16">
         <v>1.1200000000000001</v>
       </c>
@@ -729,10 +772,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B17">
         <v>1.1299999999999999</v>
       </c>
@@ -743,10 +789,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B18">
         <v>1.1399999999999999</v>
       </c>
@@ -757,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B19">
         <v>1.1499999999999999</v>
       </c>
@@ -768,17 +817,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B22">
         <v>2.1</v>
       </c>
@@ -789,10 +838,13 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B23">
         <v>2.2000000000000002</v>
       </c>
@@ -803,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B24">
         <v>2.2999999999999998</v>
       </c>
@@ -814,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B25">
         <v>2.4</v>
       </c>
@@ -825,10 +877,13 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B26">
         <v>2.5</v>
       </c>
@@ -839,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B27">
         <v>2.6</v>
       </c>
@@ -850,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B28">
         <v>2.7</v>
       </c>
@@ -861,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B29">
         <v>2.8</v>
       </c>
@@ -872,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B30">
         <v>2.9</v>
       </c>
@@ -883,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B31" s="2">
         <v>2.1</v>
       </c>
@@ -894,10 +949,13 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B32">
         <v>2.11</v>
       </c>
@@ -908,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -916,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B35">
         <v>3.1</v>
       </c>
@@ -927,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B36">
         <v>3.2</v>
       </c>
@@ -938,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B37">
         <v>3.3</v>
       </c>
@@ -949,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B38">
         <v>3.4</v>
       </c>
@@ -960,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B39">
         <v>3.5</v>
       </c>
@@ -971,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B40">
         <v>3.6</v>
       </c>
@@ -982,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B41">
         <v>3.7</v>
       </c>
@@ -993,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B42">
         <v>3.8</v>
       </c>
@@ -1004,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1012,7 +1070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B45">
         <v>4.0999999999999996</v>
       </c>
@@ -1023,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B46">
         <v>4.2</v>
       </c>
@@ -1034,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B47">
         <v>4.3</v>
       </c>
@@ -1045,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B48">
         <v>4.3</v>
       </c>
@@ -1056,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B49">
         <v>4.4000000000000004</v>
       </c>
@@ -1067,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B50">
         <v>4.5</v>
       </c>
@@ -1078,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B51">
         <v>4.5999999999999996</v>
       </c>
@@ -1089,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B52">
         <v>4.7</v>
       </c>
@@ -1100,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.5">
       <c r="C54" t="s">
         <v>51</v>
       </c>
